--- a/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.trans.xlsx
+++ b/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.trans.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC6BD7-693D-0440-8C2E-EE917202DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9CF5C-96C0-1D46-BBEC-448F8675C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54960" yWindow="-3220" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -145,27 +145,12 @@
     <t>POST</t>
   </si>
   <si>
-    <t>/api/debt</t>
-  </si>
-  <si>
-    <t>添加</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>编辑</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
     <t>批量编辑</t>
   </si>
   <si>
@@ -286,18 +271,6 @@
     <t>读取交易</t>
   </si>
   <si>
-    <t>添加交易</t>
-  </si>
-  <si>
-    <t>编辑交易</t>
-  </si>
-  <si>
-    <t>删除交易</t>
-  </si>
-  <si>
-    <t>搜索交易</t>
-  </si>
-  <si>
     <t>批量编辑交易</t>
   </si>
   <si>
@@ -346,21 +319,6 @@
     <t>fm.trans</t>
   </si>
   <si>
-    <t>act.trans.read</t>
-  </si>
-  <si>
-    <t>act.trans.add</t>
-  </si>
-  <si>
-    <t>act.trans.edit</t>
-  </si>
-  <si>
-    <t>act.trans.delete</t>
-  </si>
-  <si>
-    <t>act.trans.search</t>
-  </si>
-  <si>
     <t>act.trans.batch.edit</t>
   </si>
   <si>
@@ -391,24 +349,6 @@
     <t>act.trans.by.sigma</t>
   </si>
   <si>
-    <t>res.trans.read</t>
-  </si>
-  <si>
-    <t>JSON:plugin/ke/rule.form/fm.trans.json</t>
-  </si>
-  <si>
-    <t>res.trans.add</t>
-  </si>
-  <si>
-    <t>res.trans.edit</t>
-  </si>
-  <si>
-    <t>res.trans.delete</t>
-  </si>
-  <si>
-    <t>res.trans.search</t>
-  </si>
-  <si>
     <t>res.trans.batch.update</t>
   </si>
   <si>
@@ -439,12 +379,6 @@
     <t>res.trans.by.sigma</t>
   </si>
   <si>
-    <t>/api/trans/:key</t>
-  </si>
-  <si>
-    <t>/api/trans/search</t>
-  </si>
-  <si>
     <t>/api/batch/trans/update</t>
   </si>
   <si>
@@ -508,21 +442,6 @@
     <t>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</t>
   </si>
   <si>
-    <t>547aed93-b674-4ccd-a1d8-f0d31dd7fcd8</t>
-  </si>
-  <si>
-    <t>d22a0907-938e-4048-81b0-2d888030b196</t>
-  </si>
-  <si>
-    <t>82bbb97d-8c8b-4efd-8b43-cef70520d45e</t>
-  </si>
-  <si>
-    <t>11896847-9031-4665-8d3e-d74890d26dd7</t>
-  </si>
-  <si>
-    <t>f84345fc-af84-49df-b5b8-6adcb44d923e</t>
-  </si>
-  <si>
     <t>452efd86-3f56-4d0d-b712-6358873ac390</t>
   </si>
   <si>
@@ -551,21 +470,6 @@
   </si>
   <si>
     <t>5e5c62ac-2617-4eea-b776-9471aa3772ff</t>
-  </si>
-  <si>
-    <t>791a53cf-80e7-4e36-b78d-4be9abaefe3d</t>
-  </si>
-  <si>
-    <t>6e9ffcf1-84a1-4b9f-8cee-620e06116419</t>
-  </si>
-  <si>
-    <t>95a84397-ece1-4a7f-8a4e-8a31065d8d98</t>
-  </si>
-  <si>
-    <t>eb3cd29d-6dff-44c9-b656-30099e9699f0</t>
-  </si>
-  <si>
-    <t>785ab742-d286-4a1a-8e39-f91de1c39601</t>
   </si>
   <si>
     <t>04558efb-bbfa-40a5-8a1a-f4edd0ae3d54</t>
@@ -1208,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
@@ -1271,86 +1175,86 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1">
@@ -1408,114 +1312,114 @@
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1597,598 +1501,584 @@
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B28" s="27" t="str">
-        <f t="shared" ref="B28:B42" si="0">A48</f>
-        <v>791a53cf-80e7-4e36-b78d-4be9abaefe3d</v>
+        <f>A43</f>
+        <v>04558efb-bbfa-40a5-8a1a-f4edd0ae3d54</v>
       </c>
       <c r="C28" s="27" t="str">
+        <f>A17</f>
+        <v>9b934481-5998-46cd-b676-843ab3f68cd3</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="21">
+        <v>8</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="27" t="str">
+        <f>A44</f>
+        <v>2513002b-bdae-40b6-8ade-169c23fd9bfe</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f>A18</f>
+        <v>9a2bbc2a-b350-40ae-b8de-bcec0e46560b</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="21">
+        <v>12</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="27" t="str">
+        <f>A45</f>
+        <v>5a07cf3b-68b3-42f7-8439-57b88d3a4560</v>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f>A19</f>
+        <v>43302d2d-6905-4d79-8005-90a171365023</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="21">
+        <v>3</v>
+      </c>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="27" t="str">
+        <f>A46</f>
+        <v>26d7afe9-632c-47ea-99a2-1014049f3ede</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f>A19</f>
+        <v>43302d2d-6905-4d79-8005-90a171365023</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="21">
+        <v>3</v>
+      </c>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="27" t="str">
+        <f>A47</f>
+        <v>d416edb7-759b-41d0-9734-98bc89e82eb9</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f>A19</f>
+        <v>43302d2d-6905-4d79-8005-90a171365023</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="21">
+        <v>11</v>
+      </c>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="21" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="27" t="str">
+        <f>A48</f>
+        <v>4c7495cd-a0c3-4fb9-abd1-47dd5a197f0a</v>
+      </c>
+      <c r="C33" s="27" t="str">
+        <f>A20</f>
+        <v>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="21">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="27" t="str">
+        <f>A49</f>
+        <v>b8fb729f-7b2e-46e9-8d09-7cd0b726f038</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f>A20</f>
+        <v>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="21" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="27" t="str">
+        <f>A50</f>
+        <v>dc77b442-79cf-4fcf-a15f-562be6d14751</v>
+      </c>
+      <c r="C35" s="27" t="str">
         <f>A15</f>
         <v>38b8cbed-519a-4694-ae29-11b5900f47bf</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="D35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="21">
         <v>1</v>
       </c>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>6e9ffcf1-84a1-4b9f-8cee-620e06116419</v>
-      </c>
-      <c r="C29" s="27" t="str">
-        <f>A16</f>
-        <v>f748a672-3bd0-4194-b6b0-c54cb44444cf</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="21">
-        <v>4</v>
-      </c>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>95a84397-ece1-4a7f-8a4e-8a31065d8d98</v>
-      </c>
-      <c r="C30" s="27" t="str">
-        <f>A17</f>
-        <v>9b934481-5998-46cd-b676-843ab3f68cd3</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="21">
-        <v>8</v>
-      </c>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>eb3cd29d-6dff-44c9-b656-30099e9699f0</v>
-      </c>
-      <c r="C31" s="27" t="str">
-        <f>A18</f>
-        <v>9a2bbc2a-b350-40ae-b8de-bcec0e46560b</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="21">
-        <v>12</v>
-      </c>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>785ab742-d286-4a1a-8e39-f91de1c39601</v>
-      </c>
-      <c r="C32" s="27" t="str">
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="21" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="27" t="str">
+        <f>A51</f>
+        <v>43399cb4-0b0e-4182-b81c-54fa4b868615</v>
+      </c>
+      <c r="C36" s="27" t="str">
         <f>A15</f>
         <v>38b8cbed-519a-4694-ae29-11b5900f47bf</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="D36" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="21">
-        <v>1</v>
-      </c>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>04558efb-bbfa-40a5-8a1a-f4edd0ae3d54</v>
-      </c>
-      <c r="C33" s="27" t="str">
-        <f>A17</f>
-        <v>9b934481-5998-46cd-b676-843ab3f68cd3</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="21">
-        <v>8</v>
-      </c>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>2513002b-bdae-40b6-8ade-169c23fd9bfe</v>
-      </c>
-      <c r="C34" s="27" t="str">
-        <f>A18</f>
-        <v>9a2bbc2a-b350-40ae-b8de-bcec0e46560b</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="21">
-        <v>12</v>
-      </c>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>5a07cf3b-68b3-42f7-8439-57b88d3a4560</v>
-      </c>
-      <c r="C35" s="27" t="str">
-        <f>A19</f>
-        <v>43302d2d-6905-4d79-8005-90a171365023</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="21">
-        <v>3</v>
-      </c>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>26d7afe9-632c-47ea-99a2-1014049f3ede</v>
-      </c>
-      <c r="C36" s="27" t="str">
-        <f>A19</f>
-        <v>43302d2d-6905-4d79-8005-90a171365023</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="F36" s="22" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B37" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>d416edb7-759b-41d0-9734-98bc89e82eb9</v>
+        <f>A52</f>
+        <v>83d9d677-f44d-4c20-93c2-232cf79d7d66</v>
       </c>
       <c r="C37" s="27" t="str">
-        <f>A19</f>
-        <v>43302d2d-6905-4d79-8005-90a171365023</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="21">
-        <v>11</v>
-      </c>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>4c7495cd-a0c3-4fb9-abd1-47dd5a197f0a</v>
-      </c>
-      <c r="C38" s="27" t="str">
-        <f>A20</f>
-        <v>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="21">
-        <v>5</v>
-      </c>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>b8fb729f-7b2e-46e9-8d09-7cd0b726f038</v>
-      </c>
-      <c r="C39" s="27" t="str">
-        <f>A20</f>
-        <v>fd6cabdb-ca63-42b5-b1c8-f97345e0b999</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="21">
-        <v>3</v>
-      </c>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>dc77b442-79cf-4fcf-a15f-562be6d14751</v>
-      </c>
-      <c r="C40" s="27" t="str">
         <f>A15</f>
         <v>38b8cbed-519a-4694-ae29-11b5900f47bf</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="21" t="s">
+      <c r="D37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="21">
+        <v>1</v>
+      </c>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" ht="21" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="1"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="21" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="1"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="21" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11" ht="21" customHeight="1">
+      <c r="A41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="21">
-        <v>1</v>
-      </c>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" ht="21" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>43399cb4-0b0e-4182-b81c-54fa4b868615</v>
-      </c>
-      <c r="C41" s="27" t="str">
-        <f>A15</f>
-        <v>38b8cbed-519a-4694-ae29-11b5900f47bf</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="D41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="21">
-        <v>1</v>
-      </c>
-      <c r="I41" s="21"/>
+      <c r="E41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>83d9d677-f44d-4c20-93c2-232cf79d7d66</v>
-      </c>
-      <c r="C42" s="27" t="str">
-        <f>A15</f>
-        <v>38b8cbed-519a-4694-ae29-11b5900f47bf</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="21">
-        <v>1</v>
-      </c>
-      <c r="I42" s="21"/>
+      <c r="A42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
-      <c r="K43" s="2"/>
+      <c r="A43" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="21">
+        <v>8</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
-      <c r="K44" s="2"/>
+      <c r="A44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="21">
+        <v>12</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="A45" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="21">
+        <v>3</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1">
-      <c r="A46" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="A46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="21">
+        <v>3</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1">
-      <c r="A47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="18" t="s">
+      <c r="D47" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="G47" s="21">
+        <v>11</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G48" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>122</v>
-      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G49" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -2197,25 +2087,25 @@
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G50" s="21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -2224,25 +2114,25 @@
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G51" s="21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -2251,22 +2141,22 @@
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G52" s="21">
         <v>1</v>
@@ -2277,296 +2167,26 @@
       <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="21">
-        <v>8</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="A53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="1"/>
+      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="21">
-        <v>12</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-    </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" s="21">
-        <v>3</v>
-      </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-    </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="21">
-        <v>3</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-    </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="21">
-        <v>11</v>
-      </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="21">
-        <v>5</v>
-      </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-    </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="21">
-        <v>3</v>
-      </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-    </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="21">
-        <v>1</v>
-      </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-    </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="21">
-        <v>1</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-    </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="21">
-        <v>1</v>
-      </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-    </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="K64" s="2"/>
+      <c r="A54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="K54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C40:K40"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
